--- a/iteraciones/iteración3/resources/Horas-de-trabajo.xlsx
+++ b/iteraciones/iteración3/resources/Horas-de-trabajo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\German\ORT\IngenieriaSWAgil1\Miniproyecto\isa1-n6a-id-mini-proyecto-agil-isa-n6a-id-mini-proyecto-agil-equipo2\iteración-3\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\German\ORT\IngenieriaSWAgil1\Miniproyecto\isa1-n6a-id-mini-proyecto-agil-isa-n6a-id-mini-proyecto-agil-equipo2\iteraciones\iteración3\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Iteracion3" sheetId="4" r:id="rId1"/>
@@ -38,6 +38,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
+    <t>Framer</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>Reuniones</t>
+  </si>
+  <si>
     <t>Germán Correa</t>
   </si>
   <si>
@@ -57,21 +72,6 @@
   </si>
   <si>
     <t>Gabriel Lutz</t>
-  </si>
-  <si>
-    <t>Framer</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>Gestion</t>
-  </si>
-  <si>
-    <t>Reuniones</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,160 +466,160 @@
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +700,7 @@
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
